--- a/Recent 5yr dataset.xlsx
+++ b/Recent 5yr dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\DRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D674F98A-A994-4D92-A8E7-BFAFB3C5A3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BE701-2E61-4F28-85C0-0D1937902648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="879" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Licensee population" sheetId="8" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Licensee population'!$A$1:$F$6</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Sheet1!$A$1:$I$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
-    <pivotCache cacheId="24" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -194,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,12 +213,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,19 +366,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2022</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2021</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2018</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,19 +390,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.29639834204851001</c:v>
+                  <c:v>0.31526822368940516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30636454241364924</c:v>
+                  <c:v>0.30855120355954868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30760996736506652</c:v>
+                  <c:v>0.306350912250133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31078584276998295</c:v>
+                  <c:v>0.30735544953531579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31526822368940516</c:v>
+                  <c:v>0.21971484058995708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,19 +459,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2022</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2021</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2019</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2018</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,19 +483,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.7037925430359967</c:v>
+                  <c:v>0.68473177631059479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69344864533014905</c:v>
+                  <c:v>0.69125408981271563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69238885913858328</c:v>
+                  <c:v>0.69364792484535798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68921415723001711</c:v>
+                  <c:v>0.6926539338119535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68473177631059479</c:v>
+                  <c:v>0.7037925430359967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,43 +1676,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1792,43 +1753,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4492,7 +4417,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9DCFC1-1D6A-4A46-BCAA-EF91F29778DE}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9DCFC1-1D6A-4A46-BCAA-EF91F29778DE}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -4595,7 +4520,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E63656CD-1A6E-4C11-84BB-26BACB1E0D76}" name="PivotTable5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E63656CD-1A6E-4C11-84BB-26BACB1E0D76}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A2:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -5002,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D5421-9F21-4205-BAD5-435365468B30}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5012,8 +4937,8 @@
     <col min="2" max="2" width="14.3671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.68359375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.05078125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.05078125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26171875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5026,64 +4951,64 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B2">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1552758</v>
+        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>1189862</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>3686996</v>
+        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>2584264</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>5238754</v>
-      </c>
-      <c r="E2" s="9">
+        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3774126</v>
+      </c>
+      <c r="E2" s="8">
         <f>B2/D2</f>
-        <v>0.29639834204851001</v>
-      </c>
-      <c r="F2" s="9">
+        <v>0.31526822368940516</v>
+      </c>
+      <c r="F2" s="8">
         <f>C2/D2</f>
-        <v>0.7037925430359967</v>
+        <v>0.68473177631059479</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B3">
         <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1580921</v>
+        <v>1584698</v>
       </c>
       <c r="C3">
         <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3578376</v>
+        <v>3550234</v>
       </c>
       <c r="D3">
         <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5160261</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E6" si="0">B3/D3</f>
-        <v>0.30636454241364924</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F6" si="1">C3/D3</f>
-        <v>0.69344864533014905</v>
+        <v>5135932</v>
+      </c>
+      <c r="E3" s="8">
+        <f>B3/D3</f>
+        <v>0.30855120355954868</v>
+      </c>
+      <c r="F3" s="8">
+        <f>C3/D3</f>
+        <v>0.69125408981271563</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5092,76 +5017,81 @@
       </c>
       <c r="B4">
         <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1572787</v>
+        <v>1580616</v>
       </c>
       <c r="C4">
         <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3540133</v>
+        <v>3578873</v>
       </c>
       <c r="D4">
         <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5112926</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="0"/>
-        <v>0.30760996736506652</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" si="1"/>
-        <v>0.69238885913858328</v>
+        <v>5159495</v>
+      </c>
+      <c r="E4" s="8">
+        <f>B4/D4</f>
+        <v>0.306350912250133</v>
+      </c>
+      <c r="F4" s="8">
+        <f>C4/D4</f>
+        <v>0.69364792484535798</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B5">
         <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1577617</v>
+        <v>1179195</v>
       </c>
       <c r="C5">
         <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3498602</v>
+        <v>2657425</v>
       </c>
       <c r="D5">
         <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5076219</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>0.31078584276998295</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>0.68921415723001711</v>
+        <v>3836584</v>
+      </c>
+      <c r="E5" s="8">
+        <f>B5/D5</f>
+        <v>0.30735544953531579</v>
+      </c>
+      <c r="F5" s="8">
+        <f>C5/D5</f>
+        <v>0.6926539338119535</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B6">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1189862</v>
+        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A7,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
+        <v>1151032</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>2584264</v>
+        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
+        <v>3686996</v>
       </c>
       <c r="D6">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3774126</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.31526822368940516</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>0.68473177631059479</v>
+        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
+        <v>5238754</v>
+      </c>
+      <c r="E6" s="8">
+        <f>B6/D6</f>
+        <v>0.21971484058995708</v>
+      </c>
+      <c r="F6" s="8">
+        <f>C6/D6</f>
+        <v>0.7037925430359967</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F6" xr:uid="{063D5421-9F21-4205-BAD5-435365468B30}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+      <sortCondition ref="A1:A6"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5300,10 +5230,10 @@
       <c r="A3" s="3">
         <v>2018</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>2709</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>3507</v>
       </c>
     </row>
@@ -5311,10 +5241,10 @@
       <c r="A4" s="3">
         <v>2019</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>4557</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>4831</v>
       </c>
     </row>
@@ -5322,10 +5252,10 @@
       <c r="A5" s="3">
         <v>2020</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>3035</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>3349</v>
       </c>
     </row>
@@ -5333,10 +5263,10 @@
       <c r="A6" s="3">
         <v>2021</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>3056</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>3420</v>
       </c>
     </row>
@@ -5344,10 +5274,10 @@
       <c r="A7" s="3">
         <v>2022</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>7768</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>4298</v>
       </c>
     </row>
@@ -5355,10 +5285,10 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>21125</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>19405</v>
       </c>
     </row>
@@ -5372,7 +5302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775B8F17-CF17-4BD0-BC22-0C2B8672B73B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/Recent 5yr dataset.xlsx
+++ b/Recent 5yr dataset.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\DRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BE701-2E61-4F28-85C0-0D1937902648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE94DE-7EE1-42EB-B8A3-4987D65B2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="879" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Licensee population" sheetId="8" r:id="rId1"/>
-    <sheet name="FY Examination Admin" sheetId="7" r:id="rId2"/>
+    <sheet name="Examination Admin" sheetId="7" r:id="rId2"/>
     <sheet name="Examined License Issued brokers" sheetId="5" r:id="rId3"/>
     <sheet name="Quarterly " sheetId="3" r:id="rId4"/>
     <sheet name="FY data" sheetId="6" r:id="rId5"/>
@@ -22,12 +22,24 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Licensee population'!$A$1:$F$6</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Examination Admin'!$A$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Examination Admin'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">'Examination Admin'!$F$1</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">'Examination Admin'!$F$2:$F$6</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Examination Admin'!$E$1</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Examination Admin'!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Examination Admin'!$F$1</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Examination Admin'!$F$2:$F$6</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Examination Admin'!$A$1</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Examination Admin'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Examination Admin'!$E$1</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Examination Admin'!$E$2:$E$6</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Sheet1!$A$1:$I$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="21" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -96,12 +108,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Examinations Sales</t>
-  </si>
-  <si>
-    <t>Sum of Examinations brokers</t>
   </si>
   <si>
     <t>Quarterly</t>
@@ -138,6 +144,18 @@
   </si>
   <si>
     <t>Sum of Examinations Brokers</t>
+  </si>
+  <si>
+    <t>Total Examinations Sales</t>
+  </si>
+  <si>
+    <t>Total Exam Admin</t>
+  </si>
+  <si>
+    <t>Percentage of Brokers</t>
+  </si>
+  <si>
+    <t>Total Examinations Brokers</t>
   </si>
 </sst>
 </file>
@@ -195,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +233,11 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,19 +413,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.31526822368940516</c:v>
+                  <c:v>0.3160045637223049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30855120355954868</c:v>
+                  <c:v>0.31078584276998295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.306350912250133</c:v>
+                  <c:v>0.30760996736506652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30735544953531579</c:v>
+                  <c:v>0.30636454241364924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21971484058995708</c:v>
+                  <c:v>0.29639834204851001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,16 +506,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.68473177631059479</c:v>
+                  <c:v>0.6839954362776951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69125408981271563</c:v>
+                  <c:v>0.68921415723001711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69364792484535798</c:v>
+                  <c:v>0.69238885913858328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6926539338119535</c:v>
+                  <c:v>0.69344864533014905</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.7037925430359967</c:v>
@@ -717,7 +740,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Recent 5yr dataset.xlsx]FY Examination Admin!PivotTable4</c:name>
+    <c:name>[Recent 5yr dataset.xlsx]Examination Admin!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -727,13 +750,65 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Examination Administrated</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -742,29 +817,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
-              <a:t>Fiscial</a:t>
+              <a:t>Brokers vs. Salespersons </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-              <a:t> Year </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1"/>
-              <a:t>Examination</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-              <a:t> Administrated</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -772,8 +826,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13487816247663148"/>
-          <c:y val="4.0645960921551476E-2"/>
+          <c:x val="0.16400682277537254"/>
+          <c:y val="4.7665104480535757E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -788,13 +842,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -954,11 +1022,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FY Examination Admin'!$B$3</c:f>
+              <c:f>'Examination Admin'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Examinations brokers</c:v>
+                  <c:v>Total Examinations Brokers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -989,7 +1057,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'FY Examination Admin'!$A$4:$A$9</c:f>
+              <c:f>'Examination Admin'!$A$9:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1012,7 +1080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FY Examination Admin'!$B$4:$B$9</c:f>
+              <c:f>'Examination Admin'!$B$9:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1037,7 +1105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC6A-43E0-99B9-87AECE0F4F80}"/>
+              <c16:uniqueId val="{00000000-1943-4342-AB16-41D8A19A7707}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1046,11 +1114,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FY Examination Admin'!$C$3</c:f>
+              <c:f>'Examination Admin'!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Examinations Sales</c:v>
+                  <c:v>Total Examinations Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1081,7 +1149,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'FY Examination Admin'!$A$4:$A$9</c:f>
+              <c:f>'Examination Admin'!$A$9:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1104,7 +1172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FY Examination Admin'!$C$4:$C$9</c:f>
+              <c:f>'Examination Admin'!$C$9:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1129,7 +1197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC6A-43E0-99B9-87AECE0F4F80}"/>
+              <c16:uniqueId val="{00000001-1943-4342-AB16-41D8A19A7707}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1143,11 +1211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1013099072"/>
-        <c:axId val="1013096120"/>
+        <c:axId val="964110984"/>
+        <c:axId val="964115576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1013099072"/>
+        <c:axId val="964110984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1228,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1179,14 +1247,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.35262606821210807"/>
-              <c:y val="0.86754629629629609"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1200,7 +1260,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1253,7 +1313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013096120"/>
+        <c:crossAx val="964115576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1013096120"/>
+        <c:axId val="964115576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1348,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1301,16 +1361,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Examination </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Administered</a:t>
+                  <a:t>Examination Administered</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:endParaRPr lang="en-US" sz="500">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1318,8 +1376,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.9550059353466248E-2"/>
-              <c:y val="0.20311716243802858"/>
+              <c:x val="3.3333333333333333E-2"/>
+              <c:y val="0.21277559055118112"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1335,7 +1393,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1351,7 +1409,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1382,19 +1440,27 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013099072"/>
+        <c:crossAx val="964110984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="8.1672265770810007E-2"/>
+                <c:y val="0.24981262758821815"/>
+              </c:manualLayout>
+            </c:layout>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1407,7 +1473,7 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="en-US" sz="800" b="1"/>
+                    <a:rPr lang="en-US" sz="900" b="1"/>
                     <a:t>(Thousands)</a:t>
                   </a:r>
                 </a:p>
@@ -1425,7 +1491,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1453,37 +1519,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63052657906082099"/>
-          <c:y val="0.33310112277631965"/>
-          <c:w val="0.33733895053997004"/>
-          <c:h val="0.15625109361329834"/>
+          <c:x val="0.6277827253676157"/>
+          <c:y val="0.42381528684625996"/>
+          <c:w val="0.35728633025015205"/>
+          <c:h val="0.16468463263723915"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1560,7 +1603,9 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -4057,15 +4102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1360170</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>1367790</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4097,23 +4142,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1190624</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>550544</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>701039</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4C8C4C-DEE7-492E-D140-2C2CC347F2D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FAC7BB-FEF8-6132-BAB6-4C08FC76157B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,66 +4221,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Phoebe Miao" refreshedDate="44874.435770833334" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{381AF7A4-CEF4-4314-B1FD-A46D56CB9A06}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I6" sheet="FY data"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="FiscaL Year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2017" maxValue="2022" count="6">
-        <n v="2022"/>
-        <n v="2021"/>
-        <n v="2020"/>
-        <n v="2019"/>
-        <n v="2018"/>
-        <n v="2017"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Licensee Brokers" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1202776" maxValue="1589259"/>
-    </cacheField>
-    <cacheField name="Licensee Salespersons" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2528566" maxValue="3686996"/>
-    </cacheField>
-    <cacheField name="Total Licensee" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3731342" maxValue="5238754"/>
-    </cacheField>
-    <cacheField name="License Issued Broker" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3349" maxValue="4831"/>
-    </cacheField>
-    <cacheField name="License Issued Salesperson" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14210" maxValue="26376"/>
-    </cacheField>
-    <cacheField name="Examinations brokers" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3035" maxValue="7768" count="6">
-        <n v="7768"/>
-        <n v="3056"/>
-        <n v="3035"/>
-        <n v="4557"/>
-        <n v="3809"/>
-        <n v="3164"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Examinations Sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27937" maxValue="55762" count="6">
-        <n v="55762"/>
-        <n v="52460"/>
-        <n v="27937"/>
-        <n v="43123"/>
-        <n v="44723"/>
-        <n v="36767"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Phoebe Miao" refreshedDate="44875.467723263886" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{9BDB1367-1143-4E2F-BDDA-B4FFB4786009}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J6" sheet="FY data"/>
@@ -4286,72 +4271,64 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
-  <r>
-    <x v="0"/>
-    <n v="1552758"/>
-    <n v="3686996"/>
-    <n v="5238754"/>
-    <n v="4298"/>
-    <n v="26376"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1580921"/>
-    <n v="3578376"/>
-    <n v="5160261"/>
-    <n v="3420"/>
-    <n v="14210"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1572787"/>
-    <n v="3540133"/>
-    <n v="5112926"/>
-    <n v="3349"/>
-    <n v="15945"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1577617"/>
-    <n v="3498602"/>
-    <n v="5076219"/>
-    <n v="4831"/>
-    <n v="23311"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1589259"/>
-    <n v="3439969"/>
-    <n v="5029228"/>
-    <n v="4587"/>
-    <n v="23511"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1202776"/>
-    <n v="2528566"/>
-    <n v="3731342"/>
-    <n v="3531"/>
-    <n v="19005"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Phoebe Miao" refreshedDate="44875.920208680553" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{3F437765-5491-40A5-BECF-F20D68EEA4BE}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F6" sheet="Examination Admin"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="FiscaL Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2018" maxValue="2022" count="5">
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Examinations Brokers" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3035" maxValue="7768" count="5">
+        <n v="3809"/>
+        <n v="4557"/>
+        <n v="3035"/>
+        <n v="3056"/>
+        <n v="7768"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Examinations Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27937" maxValue="55762"/>
+    </cacheField>
+    <cacheField name="Total Exam Admin" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30972" maxValue="63530"/>
+    </cacheField>
+    <cacheField name="Percentage of Brokers" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.5047193601844513E-2" maxValue="0.12227294191720448" count="5">
+        <n v="7.8484299019203826E-2"/>
+        <n v="9.5574664429530207E-2"/>
+        <n v="9.799173446984373E-2"/>
+        <n v="5.5047193601844513E-2"/>
+        <n v="0.12227294191720448"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Percentage of Salespersons" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.8777270580827955" maxValue="0.94495280639815549" count="5">
+        <n v="0.92151570098079616"/>
+        <n v="0.90442533557046978"/>
+        <n v="0.90200826553015623"/>
+        <n v="0.94495280639815549"/>
+        <n v="0.8777270580827955"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
   <r>
     <x v="0"/>
@@ -4416,43 +4393,78 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="44723"/>
+    <n v="48532"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="43123"/>
+    <n v="47680"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="27937"/>
+    <n v="30972"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="52460"/>
+    <n v="55516"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="55762"/>
+    <n v="63530"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9DCFC1-1D6A-4A46-BCAA-EF91F29778DE}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{323E16EA-7023-42AA-9FB8-DA70D56BF9A0}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A8:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item h="1" x="5"/>
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
   <rowItems count="6">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -4464,9 +4476,6 @@
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -4484,8 +4493,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Examinations brokers" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Examinations Sales" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Total Examinations Brokers" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Total Examinations Sales" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
@@ -4927,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D5421-9F21-4205-BAD5-435365468B30}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4943,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4955,10 +4964,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4966,24 +4975,24 @@
         <v>2018</v>
       </c>
       <c r="B2">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1189862</v>
+        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>1589259</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>2584264</v>
+        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3439969</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3774126</v>
+        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>5029228</v>
       </c>
       <c r="E2" s="8">
         <f>B2/D2</f>
-        <v>0.31526822368940516</v>
+        <v>0.3160045637223049</v>
       </c>
       <c r="F2" s="8">
         <f>C2/D2</f>
-        <v>0.68473177631059479</v>
+        <v>0.6839954362776951</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4991,24 +5000,24 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1584698</v>
+        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
+        <v>1577617</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3550234</v>
+        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3498602</v>
       </c>
       <c r="D3">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5135932</v>
+        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
+        <v>5076219</v>
       </c>
       <c r="E3" s="8">
         <f>B3/D3</f>
-        <v>0.30855120355954868</v>
+        <v>0.31078584276998295</v>
       </c>
       <c r="F3" s="8">
         <f>C3/D3</f>
-        <v>0.69125408981271563</v>
+        <v>0.68921415723001711</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5016,24 +5025,24 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1580616</v>
+        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
+        <v>1572787</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3578873</v>
+        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3540133</v>
       </c>
       <c r="D4">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5159495</v>
+        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
+        <v>5112926</v>
       </c>
       <c r="E4" s="8">
         <f>B4/D4</f>
-        <v>0.306350912250133</v>
+        <v>0.30760996736506652</v>
       </c>
       <c r="F4" s="8">
         <f>C4/D4</f>
-        <v>0.69364792484535798</v>
+        <v>0.69238885913858328</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5041,24 +5050,24 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1179195</v>
+        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
+        <v>1580921</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>2657425</v>
+        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3578376</v>
       </c>
       <c r="D5">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3836584</v>
+        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
+        <v>5160261</v>
       </c>
       <c r="E5" s="8">
         <f>B5/D5</f>
-        <v>0.30735544953531579</v>
+        <v>0.30636454241364924</v>
       </c>
       <c r="F5" s="8">
         <f>C5/D5</f>
-        <v>0.6926539338119535</v>
+        <v>0.69344864533014905</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5066,20 +5075,20 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A7,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1151032</v>
+        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
+        <v>1552758</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
+        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
         <v>3686996</v>
       </c>
       <c r="D6">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
+        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
         <v>5238754</v>
       </c>
       <c r="E6" s="8">
         <f>B6/D6</f>
-        <v>0.21971484058995708</v>
+        <v>0.29639834204851001</v>
       </c>
       <c r="F6" s="8">
         <f>C6/D6</f>
@@ -5087,11 +5096,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F6" xr:uid="{063D5421-9F21-4205-BAD5-435365468B30}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
-      <sortCondition ref="A1:A6"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5100,102 +5104,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE931B1-029F-4BC1-B3E2-026840DAF93B}">
-  <dimension ref="A3:C9"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.68359375" customWidth="1"/>
-    <col min="5" max="7" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.05078125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="29.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.47265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A$2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3809</v>
+      </c>
+      <c r="C2">
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A$2,Sheet1!$B:$B,"&lt;10")</f>
+        <v>44723</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>48532</v>
+      </c>
+      <c r="E2" s="8">
+        <f>B2/D2</f>
+        <v>7.8484299019203826E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <f>C2/D2</f>
+        <v>0.92151570098079616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
+        <v>4557</v>
+      </c>
+      <c r="C3">
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
+        <v>43123</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">SUM(B3:C3)</f>
+        <v>47680</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E6" si="1">B3/D3</f>
+        <v>9.5574664429530207E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F6" si="2">C3/D3</f>
+        <v>0.90442533557046978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3035</v>
+      </c>
+      <c r="C4">
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
+        <v>27937</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>30972</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>9.799173446984373E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.90200826553015623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B5">
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
+        <v>3056</v>
+      </c>
+      <c r="C5">
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
+        <v>52460</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>55516</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>5.5047193601844513E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.94495280639815549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B6">
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
+        <v>7768</v>
+      </c>
+      <c r="C6">
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
+        <v>55762</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>63530</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12227294191720448</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8777270580827955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
         <v>2018</v>
       </c>
-      <c r="B4">
+      <c r="B9" s="9">
         <v>3809</v>
       </c>
-      <c r="C4">
+      <c r="C9" s="9">
         <v>44723</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
         <v>2019</v>
       </c>
-      <c r="B5">
+      <c r="B10" s="9">
         <v>4557</v>
       </c>
-      <c r="C5">
+      <c r="C10" s="9">
         <v>43123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
         <v>2020</v>
       </c>
-      <c r="B6">
+      <c r="B11" s="9">
         <v>3035</v>
       </c>
-      <c r="C6">
+      <c r="C11" s="9">
         <v>27937</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
         <v>2021</v>
       </c>
-      <c r="B7">
+      <c r="B12" s="9">
         <v>3056</v>
       </c>
-      <c r="C7">
+      <c r="C12" s="9">
         <v>52460</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
         <v>2022</v>
       </c>
-      <c r="B8">
+      <c r="B13" s="9">
         <v>7768</v>
       </c>
-      <c r="C8">
+      <c r="C13" s="9">
         <v>55762</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B14" s="9">
         <v>22225</v>
       </c>
-      <c r="C9">
+      <c r="C14" s="9">
         <v>224005</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5220,10 +5501,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5310,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5322,8 +5603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE34D7A-FDFC-4A62-A238-17A83A658CA1}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5341,7 +5622,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -5353,22 +5634,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5587,7 +5868,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C61"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5620,10 +5901,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>

--- a/Recent 5yr dataset.xlsx
+++ b/Recent 5yr dataset.xlsx
@@ -8,37 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\DRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE94DE-7EE1-42EB-B8A3-4987D65B2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4F5DE8-13F1-4FD0-BE84-BDD6BA9FF7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="879" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Licensee population" sheetId="8" r:id="rId1"/>
     <sheet name="Examination Admin" sheetId="7" r:id="rId2"/>
     <sheet name="Examined License Issued brokers" sheetId="5" r:id="rId3"/>
-    <sheet name="Quarterly " sheetId="3" r:id="rId4"/>
+    <sheet name="Examined License Issued sales" sheetId="11" r:id="rId4"/>
     <sheet name="FY data" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Licensee population'!$A$1:$F$6</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Examination Admin'!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Examination Admin'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Examination Admin'!$F$1</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Examination Admin'!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Examination Admin'!$E$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Examination Admin'!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Examination Admin'!$F$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Examination Admin'!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Examination Admin'!$A$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Examination Admin'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Examination Admin'!$E$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Examination Admin'!$E$2:$E$6</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Sheet1!$A$1:$I$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="23" r:id="rId7"/>
     <pivotCache cacheId="21" r:id="rId8"/>
   </pivotCaches>
   <extLst>
@@ -81,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -108,9 +96,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
   </si>
   <si>
     <t>License Issued Salesperson</t>
@@ -140,12 +125,6 @@
     <t>License Issued Brokers</t>
   </si>
   <si>
-    <t>Sum of License Issued Brokers</t>
-  </si>
-  <si>
-    <t>Sum of Examinations Brokers</t>
-  </si>
-  <si>
     <t>Total Examinations Sales</t>
   </si>
   <si>
@@ -156,6 +135,15 @@
   </si>
   <si>
     <t>Total Examinations Brokers</t>
+  </si>
+  <si>
+    <t>Total License Issued Brokers</t>
+  </si>
+  <si>
+    <t>Total License Issued Salespersons</t>
+  </si>
+  <si>
+    <t>Total Examinations Salespersons</t>
   </si>
 </sst>
 </file>
@@ -303,7 +291,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Brokers vs. Salespersons Licensee Population</a:t>
             </a:r>
           </a:p>
@@ -550,6 +538,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Fiscal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Year</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -615,6 +663,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Percentage Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1751,7 +1854,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1800,45 +1902,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1856,7 +1919,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Examinations Brokers</c:v>
+                  <c:v>Total Examinations Brokers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1921,7 +1984,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1948,20 +2010,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Examined License Issued brokers'!$A$3:$A$8</c:f>
@@ -2024,7 +2072,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of License Issued Brokers</c:v>
+                  <c:v>Total License Issued Brokers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2063,73 +2111,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Examined License Issued brokers'!$A$3:$A$8</c:f>
@@ -2221,7 +2204,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
+                  <a:t>Fiscal Year</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2490,6 +2473,765 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Recent 5yr dataset.xlsx]Examined License Issued sales!PivotTable8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Examined License Issued Salespersons</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Examined License Issued sales'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total License Issued Salespersons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Examined License Issued sales'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Examined License Issued sales'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62E7-4335-A89C-13EBF25E7EC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Examined License Issued sales'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Examinations Salespersons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Examined License Issued sales'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Examined License Issued sales'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62E7-4335-A89C-13EBF25E7EC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="482984936"/>
+        <c:axId val="530700152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482984936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Fiscal Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530700152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530700152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Number of Salespersons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.21832567804024491"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482984936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>(Thousands)</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2610,6 +3352,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4097,20 +4879,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>697230</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1367790</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4184,15 +5469,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:colOff>1356360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1301115</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1575435</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4200,6 +5485,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C763B2F5-CE82-9F8A-5AA0-CF38D38CA2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1167765</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>462915</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3084F7FD-F228-E899-B2F3-23760ABDD077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4529,7 +5855,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E63656CD-1A6E-4C11-84BB-26BACB1E0D76}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E63656CD-1A6E-4C11-84BB-26BACB1E0D76}" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A2:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -4587,8 +5913,102 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Examinations Brokers" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of License Issued Brokers" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Total Examinations Brokers" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Total License Issued Brokers" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E2EA8E6-F265-43C4-AD2A-8309F6D8EE3A}" name="PivotTable8" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Total License Issued Salespersons" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Total Examinations Salespersons" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
@@ -4936,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D5421-9F21-4205-BAD5-435365468B30}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4952,7 +6372,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4964,10 +6384,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5106,8 +6526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE931B1-029F-4BC1-B3E2-026840DAF93B}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5126,22 +6546,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5278,10 +6698,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5485,14 +6905,14 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.9453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.62890625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="22.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5501,20 +6921,20 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>2709</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>3507</v>
       </c>
     </row>
@@ -5522,10 +6942,10 @@
       <c r="A4" s="3">
         <v>2019</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>4557</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>4831</v>
       </c>
     </row>
@@ -5533,10 +6953,10 @@
       <c r="A5" s="3">
         <v>2020</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>3035</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>3349</v>
       </c>
     </row>
@@ -5544,10 +6964,10 @@
       <c r="A6" s="3">
         <v>2021</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>3056</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>3420</v>
       </c>
     </row>
@@ -5555,10 +6975,10 @@
       <c r="A7" s="3">
         <v>2022</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>7768</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>4298</v>
       </c>
     </row>
@@ -5566,10 +6986,10 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>21125</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>19405</v>
       </c>
     </row>
@@ -5580,22 +7000,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775B8F17-CF17-4BD0-BC22-0C2B8672B73B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E836CA0F-AE60-47C0-B796-A34673FCB1A6}">
+  <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.9453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>9</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="9">
+        <v>17314</v>
+      </c>
+      <c r="C4" s="9">
+        <v>32649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="9">
+        <v>23311</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="9">
+        <v>15945</v>
+      </c>
+      <c r="C6" s="9">
+        <v>27937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="9">
+        <v>14210</v>
+      </c>
+      <c r="C7" s="9">
+        <v>52460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="9">
+        <v>26376</v>
+      </c>
+      <c r="C8" s="9">
+        <v>55762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>97156</v>
+      </c>
+      <c r="C9" s="9">
+        <v>211931</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5604,7 +7102,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5622,7 +7120,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -5634,22 +7132,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5718,7 +7216,7 @@
         <v>14210</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">SUM(E3:F3)</f>
+        <f>SUM(E3:F3)</f>
         <v>17630</v>
       </c>
       <c r="H3">
@@ -5730,7 +7228,7 @@
         <v>52460</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="1">SUM(H3:I3)</f>
+        <f>SUM(H3:I3)</f>
         <v>55516</v>
       </c>
     </row>
@@ -5759,7 +7257,7 @@
         <v>15945</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>SUM(E4:F4)</f>
         <v>19294</v>
       </c>
       <c r="H4">
@@ -5771,7 +7269,7 @@
         <v>27937</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>SUM(H4:I4)</f>
         <v>30972</v>
       </c>
     </row>
@@ -5800,7 +7298,7 @@
         <v>23311</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>SUM(E5:F5)</f>
         <v>28142</v>
       </c>
       <c r="H5">
@@ -5812,7 +7310,7 @@
         <v>43123</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>SUM(H5:I5)</f>
         <v>47680</v>
       </c>
     </row>
@@ -5841,7 +7339,7 @@
         <v>17314</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>SUM(E6:F6)</f>
         <v>20821</v>
       </c>
       <c r="H6">
@@ -5853,7 +7351,7 @@
         <v>32649</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>SUM(H6:I6)</f>
         <v>35358</v>
       </c>
     </row>
@@ -5867,8 +7365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5901,10 +7399,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>

--- a/Recent 5yr dataset.xlsx
+++ b/Recent 5yr dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\DRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4F5DE8-13F1-4FD0-BE84-BDD6BA9FF7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885E304-0C63-40F7-9A22-354EC8E166AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Licensee population" sheetId="8" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Licensee population'!$A$1:$F$6</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Sheet1!$A$1:$I$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Licensee population'!$A$1:$G$6</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Sheet1!$A$1:$I$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
     <pivotCache cacheId="21" r:id="rId8"/>
   </pivotCaches>
   <extLst>
@@ -68,8 +68,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -125,9 +147,6 @@
     <t>License Issued Brokers</t>
   </si>
   <si>
-    <t>Total Examinations Sales</t>
-  </si>
-  <si>
     <t>Total Exam Admin</t>
   </si>
   <si>
@@ -145,11 +164,27 @@
   <si>
     <t>Total Examinations Salespersons</t>
   </si>
+  <si>
+    <t>total exam</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Sales examinee</t>
+  </si>
+  <si>
+    <t>Brokers examinee</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,11 +232,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,17 +257,32 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -337,7 +388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Licensee population'!$E$1</c:f>
+              <c:f>'Licensee population'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -370,6 +421,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Licensee population'!$A$2:$A$6</c:f>
@@ -396,24 +505,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Licensee population'!$E$2:$E$6</c:f>
+              <c:f>'Licensee population'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3160045637223049</c:v>
+                  <c:v>0.31516578632197234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31078584276998295</c:v>
+                  <c:v>0.3101436964677568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30760996736506652</c:v>
+                  <c:v>0.30801140352541601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30636454241364924</c:v>
+                  <c:v>0.29603555904173612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29639834204851001</c:v>
+                  <c:v>0.29358761403919892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,7 +539,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Licensee population'!$F$1</c:f>
+              <c:f>'Licensee population'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -463,6 +572,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Licensee population'!$A$2:$A$6</c:f>
@@ -489,24 +656,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Licensee population'!$F$2:$F$6</c:f>
+              <c:f>'Licensee population'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.6839954362776951</c:v>
+                  <c:v>0.68483421367802766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68921415723001711</c:v>
+                  <c:v>0.68985630353224325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69238885913858328</c:v>
+                  <c:v>0.69207398060831449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69344864533014905</c:v>
+                  <c:v>0.70396444095826394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7037925430359967</c:v>
+                  <c:v>0.70641238596080103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,8 +686,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -842,10 +1010,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Recent 5yr dataset.xlsx]Examination Admin!PivotTable4</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -853,27 +1017,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -881,58 +1031,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Examination Administrated</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="1">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1"/>
-              <a:t>Brokers vs. Salespersons </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Licensee Population</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16400682277537254"/>
-          <c:y val="4.7665104480535757E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -945,27 +1049,555 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Licensee population'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Licensee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Licensee population'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Licensee population'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>419154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>421624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>458955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-510F-44FD-92E9-FDF254EF7FA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="855367888"/>
+        <c:axId val="855363952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="855367888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1"/>
+                  <a:t>Fiscal Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44471790094309527"/>
+              <c:y val="0.88596588611802118"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855363952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="855363952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1"/>
+                  <a:t>Total Populations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855367888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Recent 5yr dataset.xlsx]Examination Admin!PivotTable8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Broker vs. Salesperson Examinees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1035,6 +1667,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1103,6 +1736,22 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1125,11 +1774,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Examination Admin'!$B$8</c:f>
+              <c:f>'Examination Admin'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Examinations Brokers</c:v>
+                  <c:v>Brokers examinee</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1160,20 +1809,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Examination Admin'!$A$9:$A$14</c:f>
+              <c:f>'Examination Admin'!$A$16:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2022</c:v>
@@ -1183,24 +1832,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Examination Admin'!$B$9:$B$14</c:f>
+              <c:f>'Examination Admin'!$B$16:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3809</c:v>
+                  <c:v>3264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4557</c:v>
+                  <c:v>3951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3035</c:v>
+                  <c:v>4303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3056</c:v>
+                  <c:v>4346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7768</c:v>
+                  <c:v>4699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1943-4342-AB16-41D8A19A7707}"/>
+              <c16:uniqueId val="{00000000-FBB0-4EB0-87A4-16C5BF427EE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1217,11 +1866,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Examination Admin'!$C$8</c:f>
+              <c:f>'Examination Admin'!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Examinations Sales</c:v>
+                  <c:v>Sales examinee</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,20 +1901,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Examination Admin'!$A$9:$A$14</c:f>
+              <c:f>'Examination Admin'!$A$16:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2022</c:v>
@@ -1275,24 +1924,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Examination Admin'!$C$9:$C$14</c:f>
+              <c:f>'Examination Admin'!$C$16:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44723</c:v>
+                  <c:v>30571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43123</c:v>
+                  <c:v>36275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27937</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52460</c:v>
+                  <c:v>45582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55762</c:v>
+                  <c:v>59021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,11 +1949,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1943-4342-AB16-41D8A19A7707}"/>
+              <c16:uniqueId val="{00000001-FBB0-4EB0-87A4-16C5BF427EE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1314,11 +1964,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="964110984"/>
-        <c:axId val="964115576"/>
+        <c:axId val="560661488"/>
+        <c:axId val="560658536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="964110984"/>
+        <c:axId val="560661488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1994,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1000" b="1"/>
                   <a:t>Fiscal Year</a:t>
                 </a:r>
               </a:p>
@@ -1416,7 +2066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964115576"/>
+        <c:crossAx val="560658536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1424,7 +2074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964115576"/>
+        <c:axId val="560658536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,14 +2114,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Examination Administered</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Examinee Administrated</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="500">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1479,8 +2124,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.3333333333333333E-2"/>
-              <c:y val="0.21277559055118112"/>
+              <c:x val="2.9467677991300071E-2"/>
+              <c:y val="0.15858814523184597"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1512,7 +2157,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1543,74 +2188,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964110984"/>
+        <c:crossAx val="560661488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout>
-              <c:manualLayout>
-                <c:xMode val="edge"/>
-                <c:yMode val="edge"/>
-                <c:x val="8.1672265770810007E-2"/>
-                <c:y val="0.24981262758821815"/>
-              </c:manualLayout>
-            </c:layout>
-            <c:tx>
-              <c:rich>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="900" b="1"/>
-                    <a:t>(Thousands)</a:t>
-                  </a:r>
-                </a:p>
-              </c:rich>
-            </c:tx>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1621,17 +2201,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.6277827253676157"/>
-          <c:y val="0.42381528684625996"/>
-          <c:w val="0.35728633025015205"/>
-          <c:h val="0.16468463263723915"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1720,7 +2290,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1902,6 +2472,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2111,7 +2720,58 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2473,7 +3133,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3392,6 +4052,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3909,7 +4609,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3920,7 +4620,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3933,7 +4633,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -3950,7 +4650,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3966,7 +4666,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4010,35 +4710,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4050,30 +4750,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4175,14 +4876,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4272,20 +4967,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4298,6 +4993,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4329,7 +5035,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4338,14 +5044,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4399,40 +5104,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4447,7 +5152,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4455,7 +5160,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4463,14 +5168,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -4479,8 +5187,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4503,35 +5212,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4540,32 +5259,36 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4581,16 +5304,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4624,17 +5352,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4643,13 +5371,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4661,20 +5390,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4688,99 +5423,96 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4788,17 +5520,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4807,9 +5539,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4818,14 +5553,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4834,7 +5569,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -4843,7 +5581,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4864,7 +5602,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -4873,40 +5614,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4921,7 +5662,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4929,7 +5670,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4937,17 +5678,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -4956,9 +5694,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4981,35 +5718,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5018,33 +5755,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5060,21 +5796,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5108,17 +5839,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5127,14 +5858,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5146,26 +5876,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5179,96 +5903,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5276,17 +6003,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5295,12 +6022,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5309,14 +6033,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5325,10 +6049,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5337,7 +6058,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5358,6 +6079,500 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
@@ -5386,16 +6601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>697230</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5420,6 +6635,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>887730</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A9C7D8-FABA-BC93-9D63-C7DB94B826D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5427,23 +6678,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>550544</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>131444</xdr:rowOff>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>701039</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>497205</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FAC7BB-FEF8-6132-BAB6-4C08FC76157B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3BC4C0-AF11-AB2F-3FAA-F3777967D4B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5468,16 +6719,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1356360</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1575435</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451485</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5510,15 +6761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1167765</xdr:colOff>
+      <xdr:colOff>1815465</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>462915</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5598,13 +6849,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Phoebe Miao" refreshedDate="44875.920208680553" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{3F437765-5491-40A5-BECF-F20D68EEA4BE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Phoebe Miao" refreshedDate="44884.077798611113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{92123E98-CDB0-42F5-84E5-12CD1F40B687}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F6" sheet="Examination Admin"/>
+    <worksheetSource ref="A1:F7" sheet="Examination Admin"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="FiscaL Year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2018" maxValue="2022" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2017" maxValue="2022" count="6">
+        <n v="2017"/>
         <n v="2018"/>
         <n v="2019"/>
         <n v="2020"/>
@@ -5613,37 +6865,33 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Examinations Brokers" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3035" maxValue="7768" count="5">
-        <n v="3809"/>
-        <n v="4557"/>
-        <n v="3035"/>
-        <n v="3056"/>
-        <n v="7768"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3264" maxValue="4699" count="6">
+        <m/>
+        <n v="4346"/>
+        <n v="4303"/>
+        <n v="3264"/>
+        <n v="3951"/>
+        <n v="4699"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Examinations Sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27937" maxValue="55762"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30571" maxValue="59021"/>
     </cacheField>
     <cacheField name="Total Exam Admin" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30972" maxValue="63530"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="33835" maxValue="63720" count="6">
+        <m/>
+        <n v="49928"/>
+        <n v="48468"/>
+        <n v="33835"/>
+        <n v="40226"/>
+        <n v="63720"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Percentage of Brokers" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.5047193601844513E-2" maxValue="0.12227294191720448" count="5">
-        <n v="7.8484299019203826E-2"/>
-        <n v="9.5574664429530207E-2"/>
-        <n v="9.799173446984373E-2"/>
-        <n v="5.5047193601844513E-2"/>
-        <n v="0.12227294191720448"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="7.3744507219083488E-2" maxValue="9.822005667975936E-2"/>
     </cacheField>
     <cacheField name="Percentage of Salespersons" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.8777270580827955" maxValue="0.94495280639815549" count="5">
-        <n v="0.92151570098079616"/>
-        <n v="0.90442533557046978"/>
-        <n v="0.90200826553015623"/>
-        <n v="0.94495280639815549"/>
-        <n v="0.8777270580827955"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.9017799433202407" maxValue="0.92625549278091646"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5720,88 +6968,126 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="44723"/>
-    <n v="48532"/>
+    <m/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="43123"/>
-    <n v="47680"/>
+    <n v="45582"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="8.7045345297228002E-2"/>
+    <n v="0.91295465470277204"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="27937"/>
-    <n v="30972"/>
+    <n v="44165"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="8.8780226128579678E-2"/>
+    <n v="0.91121977387142028"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="52460"/>
-    <n v="55516"/>
+    <n v="30571"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="9.6468154278114379E-2"/>
+    <n v="0.90353184572188561"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="55762"/>
-    <n v="63530"/>
+    <n v="36275"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="9.822005667975936E-2"/>
+    <n v="0.9017799433202407"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="59021"/>
+    <x v="5"/>
+    <n v="7.3744507219083488E-2"/>
+    <n v="0.92625549278091646"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{323E16EA-7023-42AA-9FB8-DA70D56BF9A0}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A8:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93B827D6-5BEB-4142-8789-260A5DCECA2F}" name="PivotTable8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A15:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item h="1" x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
   <rowItems count="6">
     <i>
-      <x/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -5819,9 +7105,14 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Total Examinations Brokers" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Total Examinations Sales" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Brokers examinee" fld="1" baseField="0" baseItem="1"/>
+    <dataField name="Sales examinee" fld="2" baseField="3" baseItem="3"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -5855,7 +7146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E63656CD-1A6E-4C11-84BB-26BACB1E0D76}" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E63656CD-1A6E-4C11-84BB-26BACB1E0D76}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A2:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -5949,7 +7240,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E2EA8E6-F265-43C4-AD2A-8309F6D8EE3A}" name="PivotTable8" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E2EA8E6-F265-43C4-AD2A-8309F6D8EE3A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -6044,8 +7335,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{BC7AAAA8-4BEC-41A4-A031-2F2DB453B126}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
-    <queryTableFields count="9">
+  <queryTableRefresh nextId="15" unboundColumnsRight="2">
+    <queryTableFields count="11">
       <queryTableField id="2" name="Year" tableColumnId="2"/>
       <queryTableField id="3" name="Month" tableColumnId="3"/>
       <queryTableField id="4" name="Licensee Brokers" tableColumnId="4"/>
@@ -6055,6 +7346,8 @@
       <queryTableField id="8" name="REL Salesperson" tableColumnId="8"/>
       <queryTableField id="9" name="Examinations brokers" tableColumnId="9"/>
       <queryTableField id="10" name="Examinations Sales" tableColumnId="10"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="1"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Source.Name"/>
@@ -6064,8 +7357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A0C9E3-B104-44A4-B1C3-C0EC063D8649}" name="Resources" displayName="Resources" ref="A1:I70" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I70" xr:uid="{36A0C9E3-B104-44A4-B1C3-C0EC063D8649}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A0C9E3-B104-44A4-B1C3-C0EC063D8649}" name="Resources" displayName="Resources" ref="A1:K71" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:K71" xr:uid="{36A0C9E3-B104-44A4-B1C3-C0EC063D8649}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -6075,8 +7368,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="9">
+  <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{11F3BA67-DDC0-4D75-801B-70155C3E002F}" uniqueName="2" name="Year" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{22F567A5-C722-49E6-BD5E-EF1580DA0928}" uniqueName="3" name="Month" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{32DD80C8-77AD-4946-8923-E9ECF77F9514}" uniqueName="4" name="Licensee Brokers" queryTableFieldId="4"/>
@@ -6086,6 +7381,10 @@
     <tableColumn id="8" xr3:uid="{5F3B2479-7C5D-4FA5-8829-7900A0F68779}" uniqueName="8" name="License Issued Salesperson" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{AA04227F-42E5-424B-8344-363803F61270}" uniqueName="9" name="Examinations brokers" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{05E676DE-E50F-4F37-94AF-8291AAEE3199}" uniqueName="10" name="Examinations Sales" queryTableFieldId="10"/>
+    <tableColumn id="1" xr3:uid="{1421E6DA-3321-4EC4-9D75-510D5B063D10}" uniqueName="1" name="total exam" queryTableFieldId="12" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{876AB3B4-B1AB-43F8-B460-2FBF5B48BC0F}" uniqueName="12" name="Column1" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6354,165 +7653,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D5421-9F21-4205-BAD5-435365468B30}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.05078125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26171875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.47265625" customWidth="1"/>
+    <col min="3" max="3" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.05078125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26171875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>2018</v>
       </c>
-      <c r="B2">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1589259</v>
-      </c>
-      <c r="C2">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3439969</v>
-      </c>
-      <c r="D2">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5029228</v>
-      </c>
-      <c r="E2" s="8">
-        <f>B2/D2</f>
-        <v>0.3160045637223049</v>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" cm="1">
+        <f t="array" ref="C2">_xlfn.XLOOKUP($A2&amp;$B2,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!C:C)</f>
+        <v>132103</v>
+      </c>
+      <c r="D2" s="11" cm="1">
+        <f t="array" ref="D2">_xlfn.XLOOKUP($A2&amp;$B2,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!D:D)</f>
+        <v>287051</v>
+      </c>
+      <c r="E2" s="11" cm="1">
+        <f t="array" ref="E2">_xlfn.XLOOKUP($A2&amp;$B2,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!E:E)</f>
+        <v>419154</v>
       </c>
       <c r="F2" s="8">
-        <f>C2/D2</f>
-        <v>0.6839954362776951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>C2/E2</f>
+        <v>0.31516578632197234</v>
+      </c>
+      <c r="G2" s="8">
+        <f>D2/E2</f>
+        <v>0.68483421367802766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>2019</v>
       </c>
-      <c r="B3">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1577617</v>
-      </c>
-      <c r="C3">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3498602</v>
-      </c>
-      <c r="D3">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5076219</v>
-      </c>
-      <c r="E3" s="8">
-        <f>B3/D3</f>
-        <v>0.31078584276998295</v>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" cm="1">
+        <f t="array" ref="C3">_xlfn.XLOOKUP($A3&amp;$B3,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!C:C)</f>
+        <v>131442</v>
+      </c>
+      <c r="D3" s="11" cm="1">
+        <f t="array" ref="D3">_xlfn.XLOOKUP($A3&amp;$B3,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!D:D)</f>
+        <v>292368</v>
+      </c>
+      <c r="E3" s="11" cm="1">
+        <f t="array" ref="E3">_xlfn.XLOOKUP($A3&amp;$B3,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!E:E)</f>
+        <v>423810</v>
       </c>
       <c r="F3" s="8">
-        <f>C3/D3</f>
-        <v>0.68921415723001711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>C3/E3</f>
+        <v>0.3101436964677568</v>
+      </c>
+      <c r="G3" s="8">
+        <f>D3/E3</f>
+        <v>0.68985630353224325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>2020</v>
       </c>
-      <c r="B4">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1572787</v>
-      </c>
-      <c r="C4">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3540133</v>
-      </c>
-      <c r="D4">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5112926</v>
-      </c>
-      <c r="E4" s="8">
-        <f>B4/D4</f>
-        <v>0.30760996736506652</v>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" cm="1">
+        <f t="array" ref="C4">_xlfn.XLOOKUP($A4&amp;$B4,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!C:C)</f>
+        <v>129865</v>
+      </c>
+      <c r="D4" s="11" cm="1">
+        <f t="array" ref="D4">_xlfn.XLOOKUP($A4&amp;$B4,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!D:D)</f>
+        <v>291795</v>
+      </c>
+      <c r="E4" s="11" cm="1">
+        <f t="array" ref="E4">_xlfn.XLOOKUP($A4&amp;$B4,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!E:E)</f>
+        <v>421624</v>
       </c>
       <c r="F4" s="8">
-        <f>C4/D4</f>
-        <v>0.69238885913858328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>C4/E4</f>
+        <v>0.30801140352541601</v>
+      </c>
+      <c r="G4" s="8">
+        <f>D4/E4</f>
+        <v>0.69207398060831449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>2021</v>
       </c>
-      <c r="B5">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1580921</v>
-      </c>
-      <c r="C5">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3578376</v>
-      </c>
-      <c r="D5">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5160261</v>
-      </c>
-      <c r="E5" s="8">
-        <f>B5/D5</f>
-        <v>0.30636454241364924</v>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" cm="1">
+        <f t="array" ref="C5">_xlfn.XLOOKUP($A5&amp;$B5,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!C:C)</f>
+        <v>135867</v>
+      </c>
+      <c r="D5" s="11" cm="1">
+        <f t="array" ref="D5">_xlfn.XLOOKUP($A5&amp;$B5,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!D:D)</f>
+        <v>323088</v>
+      </c>
+      <c r="E5" s="11" cm="1">
+        <f t="array" ref="E5">_xlfn.XLOOKUP($A5&amp;$B5,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!E:E)</f>
+        <v>458955</v>
       </c>
       <c r="F5" s="8">
-        <f>C5/D5</f>
-        <v>0.69344864533014905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>C5/E5</f>
+        <v>0.29603555904173612</v>
+      </c>
+      <c r="G5" s="8">
+        <f>D5/E5</f>
+        <v>0.70396444095826394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>2022</v>
       </c>
-      <c r="B6">
-        <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1552758</v>
-      </c>
-      <c r="C6">
-        <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3686996</v>
-      </c>
-      <c r="D6">
-        <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5238754</v>
-      </c>
-      <c r="E6" s="8">
-        <f>B6/D6</f>
-        <v>0.29639834204851001</v>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" cm="1">
+        <f t="array" ref="C6">_xlfn.XLOOKUP($A6&amp;$B6,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!C:C)</f>
+        <v>127789</v>
+      </c>
+      <c r="D6" s="11" cm="1">
+        <f t="array" ref="D6">_xlfn.XLOOKUP($A6&amp;$B6,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!D:D)</f>
+        <v>307478</v>
+      </c>
+      <c r="E6" s="11" cm="1">
+        <f t="array" ref="E6">_xlfn.XLOOKUP($A6&amp;$B6,Sheet1!$A:$A&amp;Sheet1!$B:$B,Sheet1!E:E)</f>
+        <v>435267</v>
       </c>
       <c r="F6" s="8">
-        <f>C6/D6</f>
-        <v>0.7037925430359967</v>
+        <f>C6/E6</f>
+        <v>0.29358761403919892</v>
+      </c>
+      <c r="G6" s="8">
+        <f>D6/E6</f>
+        <v>0.70641238596080103</v>
       </c>
     </row>
   </sheetData>
@@ -6524,20 +7842,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE931B1-029F-4BC1-B3E2-026840DAF93B}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.05078125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.68359375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="29.20703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.47265625" bestFit="1" customWidth="1"/>
@@ -6545,7 +7862,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6554,293 +7871,291 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B2">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A$2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3809</v>
-      </c>
-      <c r="C2">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,2017,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A$2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>44723</v>
-      </c>
-      <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>48532</v>
-      </c>
-      <c r="E2" s="8">
-        <f>B2/D2</f>
-        <v>7.8484299019203826E-2</v>
-      </c>
-      <c r="F2" s="8">
-        <f>C2/D2</f>
-        <v>0.92151570098079616</v>
-      </c>
+      <c r="A2" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>4557</v>
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A2,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A3,Sheet1!$B:$B,"&lt;7")</f>
+        <v>4346</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>43123</v>
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A2,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A3,Sheet1!$B:$B,"&lt;7")</f>
+        <v>45582</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">SUM(B3:C3)</f>
-        <v>47680</v>
+        <f>SUM(B3:C3)</f>
+        <v>49928</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E6" si="1">B3/D3</f>
-        <v>9.5574664429530207E-2</v>
+        <f>B3/D3</f>
+        <v>8.7045345297228002E-2</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F6" si="2">C3/D3</f>
-        <v>0.90442533557046978</v>
+        <f>C3/D3</f>
+        <v>0.91295465470277204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B4">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3035</v>
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A3,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A4,Sheet1!$B:$B,"&lt;7")</f>
+        <v>4303</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>27937</v>
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A3,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A4,Sheet1!$B:$B,"&lt;7")</f>
+        <v>44165</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>30972</v>
+        <f t="shared" ref="D4:D7" si="0">SUM(B4:C4)</f>
+        <v>48468</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" si="1"/>
-        <v>9.799173446984373E-2</v>
+        <f t="shared" ref="E4:E7" si="1">B4/D4</f>
+        <v>8.8780226128579678E-2</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="2"/>
-        <v>0.90200826553015623</v>
+        <f t="shared" ref="F4:F7" si="2">C4/D4</f>
+        <v>0.91121977387142028</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B5">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3056</v>
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A4,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A5,Sheet1!$B:$B,"&lt;7")</f>
+        <v>3264</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&lt;10")</f>
-        <v>52460</v>
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A4,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A5,Sheet1!$B:$B,"&lt;7")</f>
+        <v>30571</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>55516</v>
+        <v>33835</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
-        <v>5.5047193601844513E-2</v>
+        <v>9.6468154278114379E-2</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>0.94495280639815549</v>
+        <v>0.90353184572188561</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B6">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>7768</v>
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A5,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A6,Sheet1!$B:$B,"&lt;7")</f>
+        <v>3861</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt;9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>55762</v>
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A5,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A6,Sheet1!$B:$B,"&lt;7")</f>
+        <v>38150</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>63530</v>
+        <v>42011</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="1"/>
-        <v>0.12227294191720448</v>
+        <v>9.1904501202066127E-2</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
-        <v>0.8777270580827955</v>
+        <v>0.90809549879793383</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A6,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,A7,Sheet1!$B:$B,"&lt;7")</f>
+        <v>4699</v>
+      </c>
+      <c r="C7">
+        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A6,Sheet1!$B:$B,"&gt;6") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,A7,Sheet1!$B:$B,"&lt;7")</f>
+        <v>59021</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>63720</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>7.3744507219083488E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.92625549278091646</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3809</v>
-      </c>
-      <c r="C9" s="9">
-        <v>44723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="9">
-        <v>4557</v>
-      </c>
-      <c r="C10" s="9">
-        <v>43123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3035</v>
-      </c>
-      <c r="C11" s="9">
-        <v>27937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3056</v>
-      </c>
-      <c r="C12" s="9">
-        <v>52460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="9">
-        <v>7768</v>
-      </c>
-      <c r="C13" s="9">
-        <v>55762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9">
-        <v>22225</v>
-      </c>
-      <c r="C14" s="9">
-        <v>224005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3264</v>
+      </c>
+      <c r="C16" s="15">
+        <v>30571</v>
+      </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3951</v>
+      </c>
+      <c r="C17" s="15">
+        <v>36275</v>
+      </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="15">
+        <v>4303</v>
+      </c>
+      <c r="C18" s="15">
+        <v>44165</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="15">
+        <v>4346</v>
+      </c>
+      <c r="C19" s="15">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="15">
+        <v>4699</v>
+      </c>
+      <c r="C20" s="15">
+        <v>59021</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="15">
+        <v>20563</v>
+      </c>
+      <c r="C21" s="15">
+        <v>215614</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34"/>
-      <c r="F34"/>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33"/>
+      <c r="F33"/>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E35"/>
@@ -6890,10 +8205,15 @@
       <c r="E46"/>
       <c r="F46"/>
     </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
-    <sortCondition ref="A1:A6"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -6905,7 +8225,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6921,20 +8241,20 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>2709</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>3507</v>
       </c>
     </row>
@@ -6942,10 +8262,10 @@
       <c r="A4" s="3">
         <v>2019</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>4557</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>4831</v>
       </c>
     </row>
@@ -6953,10 +8273,10 @@
       <c r="A5" s="3">
         <v>2020</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>3035</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>3349</v>
       </c>
     </row>
@@ -6964,10 +8284,10 @@
       <c r="A6" s="3">
         <v>2021</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>3056</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>3420</v>
       </c>
     </row>
@@ -6975,10 +8295,10 @@
       <c r="A7" s="3">
         <v>2022</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>7768</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>4298</v>
       </c>
     </row>
@@ -6986,10 +8306,10 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>21125</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>19405</v>
       </c>
     </row>
@@ -7019,20 +8339,20 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>2018</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>17314</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>32649</v>
       </c>
     </row>
@@ -7040,10 +8360,10 @@
       <c r="A5" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>23311</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>43123</v>
       </c>
     </row>
@@ -7051,10 +8371,10 @@
       <c r="A6" s="3">
         <v>2020</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>15945</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>27937</v>
       </c>
     </row>
@@ -7062,10 +8382,10 @@
       <c r="A7" s="3">
         <v>2021</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>14210</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>52460</v>
       </c>
     </row>
@@ -7073,10 +8393,10 @@
       <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>26376</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>55762</v>
       </c>
     </row>
@@ -7084,10 +8404,10 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>97156</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>211931</v>
       </c>
     </row>
@@ -7102,7 +8422,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7156,39 +8476,39 @@
       </c>
       <c r="B2">
         <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A2,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1552758</v>
+        <v>1536720</v>
       </c>
       <c r="C2">
         <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>3686996</v>
+        <v>3674260</v>
       </c>
       <c r="D2">
         <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>5238754</v>
+        <v>5210980</v>
       </c>
       <c r="E2">
         <f>SUMIFS(Sheet1!F:F,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!F:F,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>4298</v>
+        <v>4532</v>
       </c>
       <c r="F2">
         <f>SUMIFS(Sheet1!G:G,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!G:G,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>26376</v>
+        <v>27958</v>
       </c>
       <c r="G2">
         <f>SUM(E2:F2)</f>
-        <v>30674</v>
+        <v>32490</v>
       </c>
       <c r="H2">
         <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>7768</v>
+        <v>6195</v>
       </c>
       <c r="I2">
         <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,"= 2021",Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,"=2022",Sheet1!$B:$B,"&lt;10")</f>
-        <v>55762</v>
+        <v>64191</v>
       </c>
       <c r="J2">
         <f>SUM(H2:I2)</f>
-        <v>63530</v>
+        <v>70386</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7197,39 +8517,39 @@
       </c>
       <c r="B3">
         <f>SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!C:C,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>1580921</v>
+        <v>1596563</v>
       </c>
       <c r="C3">
         <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3578376</v>
+        <v>3711737</v>
       </c>
       <c r="D3">
         <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5160261</v>
+        <v>5308300</v>
       </c>
       <c r="E3">
         <f>SUMIFS(Sheet1!F:F,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!F:F,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3420</v>
+        <v>4160</v>
       </c>
       <c r="F3">
         <f>SUMIFS(Sheet1!G:G,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!G:G,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>14210</v>
+        <v>25704</v>
       </c>
       <c r="G3">
         <f>SUM(E3:F3)</f>
-        <v>17630</v>
+        <v>29864</v>
       </c>
       <c r="H3">
         <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3056</v>
+        <v>4245</v>
       </c>
       <c r="I3">
         <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A3,Sheet1!$B:$B,"&lt;10")</f>
-        <v>52460</v>
+        <v>41127</v>
       </c>
       <c r="J3">
         <f>SUM(H3:I3)</f>
-        <v>55516</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7242,15 +8562,15 @@
       </c>
       <c r="C4">
         <f>SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!D:D,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3540133</v>
+        <v>3529787</v>
       </c>
       <c r="D4">
         <f>SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!E:E,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>5112926</v>
+        <v>5112538</v>
       </c>
       <c r="E4">
         <f>SUMIFS(Sheet1!F:F,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!F:F,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
-        <v>3349</v>
+        <v>3449</v>
       </c>
       <c r="F4">
         <f>SUMIFS(Sheet1!G:G,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!G:G,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
@@ -7258,7 +8578,7 @@
       </c>
       <c r="G4">
         <f>SUM(E4:F4)</f>
-        <v>19294</v>
+        <v>19394</v>
       </c>
       <c r="H4">
         <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A5,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A4,Sheet1!$B:$B,"&lt;10")</f>
@@ -7344,7 +8664,7 @@
       </c>
       <c r="H6">
         <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
-        <v>2709</v>
+        <v>3040</v>
       </c>
       <c r="I6">
         <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,#REF!,Sheet1!$B:$B,"&gt; 9") + SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A6,Sheet1!$B:$B,"&lt;10")</f>
@@ -7352,7 +8672,7 @@
       </c>
       <c r="J6">
         <f>SUM(H6:I6)</f>
-        <v>35358</v>
+        <v>35689</v>
       </c>
     </row>
   </sheetData>
@@ -7363,10 +8683,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7380,9 +8700,10 @@
     <col min="7" max="7" width="22.578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7410,8 +8731,15 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -7439,8 +8767,12 @@
       <c r="I2">
         <v>3545</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -7468,8 +8800,12 @@
       <c r="I3">
         <v>3157</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -7497,8 +8833,12 @@
       <c r="I4">
         <v>4231</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -7526,8 +8866,12 @@
       <c r="I5">
         <v>3824</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7555,8 +8899,12 @@
       <c r="I6">
         <v>4439</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -7584,8 +8932,12 @@
       <c r="I7">
         <v>4788</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -7613,8 +8965,12 @@
       <c r="I8">
         <v>3775</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7640,10 +8996,14 @@
         <v>412</v>
       </c>
       <c r="I9">
-        <v>5148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5149</v>
+      </c>
+      <c r="J9">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -7671,8 +9031,12 @@
       <c r="I10">
         <v>3860</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -7700,8 +9064,12 @@
       <c r="I11">
         <v>4043</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -7729,8 +9097,12 @@
       <c r="I12">
         <v>4104</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -7758,8 +9130,12 @@
       <c r="I13">
         <v>3927</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -7787,8 +9163,12 @@
       <c r="I14">
         <v>3433</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -7811,13 +9191,17 @@
         <v>1651</v>
       </c>
       <c r="H15">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I15">
         <v>3414</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -7845,8 +9229,12 @@
       <c r="I16">
         <v>3496</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -7869,13 +9257,17 @@
         <v>1653</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="I17">
         <v>2966</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -7903,8 +9295,12 @@
       <c r="I18">
         <v>3635</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -7927,13 +9323,17 @@
         <v>1922</v>
       </c>
       <c r="H19">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="I19">
         <v>3780</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -7961,8 +9361,12 @@
       <c r="I20">
         <v>3962</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -7990,8 +9394,12 @@
       <c r="I21">
         <v>4371</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -8019,8 +9427,12 @@
       <c r="I22">
         <v>3592</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -8048,8 +9460,12 @@
       <c r="I23">
         <v>4337</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -8077,8 +9493,12 @@
       <c r="I24">
         <v>3860</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -8106,8 +9526,12 @@
       <c r="I25">
         <v>3158</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -8135,8 +9559,12 @@
       <c r="I26">
         <v>3414</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -8164,8 +9592,12 @@
       <c r="I27">
         <v>3329</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -8193,8 +9625,12 @@
       <c r="I28">
         <v>3546</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -8222,8 +9658,12 @@
       <c r="I29">
         <v>3573</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -8251,8 +9691,12 @@
       <c r="I30">
         <v>3571</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -8280,8 +9724,12 @@
       <c r="I31">
         <v>3452</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -8303,14 +9751,18 @@
       <c r="G32">
         <v>1936</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="14">
         <v>398</v>
       </c>
       <c r="I32">
         <v>3708</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -8332,14 +9784,18 @@
       <c r="G33">
         <v>2250</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="14">
         <v>440</v>
       </c>
       <c r="I33">
         <v>3997</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -8361,14 +9817,18 @@
       <c r="G34">
         <v>1719</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="14">
         <v>367</v>
       </c>
       <c r="I34">
         <v>3178</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -8385,19 +9845,23 @@
         <v>425465</v>
       </c>
       <c r="F35">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="G35">
         <v>1776</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="14">
         <v>363</v>
       </c>
       <c r="I35">
         <v>3532</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -8419,14 +9883,18 @@
       <c r="G36">
         <v>1548</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="14">
         <v>369</v>
       </c>
       <c r="I36">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -8448,14 +9916,18 @@
       <c r="G37">
         <v>1471</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="14">
         <v>326</v>
       </c>
       <c r="I37">
         <v>2980</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -8466,10 +9938,10 @@
         <v>131143</v>
       </c>
       <c r="D38">
-        <v>294827</v>
+        <v>284481</v>
       </c>
       <c r="E38">
-        <v>426012</v>
+        <v>425624</v>
       </c>
       <c r="F38">
         <v>315</v>
@@ -8477,14 +9949,18 @@
       <c r="G38">
         <v>1303</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="14">
         <v>296</v>
       </c>
       <c r="I38">
         <v>2638</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -8506,14 +9982,18 @@
       <c r="G39">
         <v>1609</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="14">
         <v>371</v>
       </c>
       <c r="I39">
         <v>3532</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -8535,14 +10015,18 @@
       <c r="G40">
         <v>1252</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="14">
         <v>169</v>
       </c>
       <c r="I40">
         <v>1920</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -8564,14 +10048,18 @@
       <c r="G41">
         <v>820</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="14">
         <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J41">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -8593,14 +10081,18 @@
       <c r="G42">
         <v>729</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="14">
         <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -8622,14 +10114,18 @@
       <c r="G43">
         <v>984</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="14">
         <v>165</v>
       </c>
       <c r="I43">
         <v>2086</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -8651,14 +10147,18 @@
       <c r="G44">
         <v>1467</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="14">
         <v>263</v>
       </c>
       <c r="I44">
         <v>2934</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -8680,14 +10180,18 @@
       <c r="G45">
         <v>1343</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="14">
         <v>338</v>
       </c>
       <c r="I45">
         <v>2615</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -8709,14 +10213,18 @@
       <c r="G46">
         <v>1643</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="14">
         <v>375</v>
       </c>
       <c r="I46">
         <v>2700</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -8738,14 +10246,18 @@
       <c r="G47">
         <v>2071</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="14">
         <v>415</v>
       </c>
       <c r="I47">
         <v>3114</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -8767,14 +10279,18 @@
       <c r="G48">
         <v>1290</v>
       </c>
-      <c r="H48">
-        <v>435</v>
-      </c>
-      <c r="I48">
-        <v>26747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="14">
+        <v>345</v>
+      </c>
+      <c r="I48" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J48">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -8788,7 +10304,7 @@
         <v>308203</v>
       </c>
       <c r="E49">
-        <v>443441</v>
+        <v>442441</v>
       </c>
       <c r="F49">
         <v>271</v>
@@ -8796,14 +10312,18 @@
       <c r="G49">
         <v>920</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="14">
         <v>72</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="14">
         <v>3114</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -8811,28 +10331,32 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>131061</v>
+        <v>133936</v>
       </c>
       <c r="D50">
-        <v>294100</v>
+        <v>308933</v>
       </c>
       <c r="E50">
-        <v>425161</v>
+        <v>442869</v>
       </c>
       <c r="F50">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="G50">
-        <v>1471</v>
-      </c>
-      <c r="H50">
-        <v>326</v>
-      </c>
-      <c r="I50">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>501</v>
+      </c>
+      <c r="H50" s="14">
+        <v>10</v>
+      </c>
+      <c r="I50" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J50">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -8840,28 +10364,32 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>131143</v>
+        <v>134201</v>
       </c>
       <c r="D51">
-        <v>294481</v>
+        <v>310813</v>
       </c>
       <c r="E51">
-        <v>425624</v>
+        <v>445014</v>
       </c>
       <c r="F51">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="G51">
-        <v>1303</v>
-      </c>
-      <c r="H51">
-        <v>296</v>
-      </c>
-      <c r="I51">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>1711</v>
+      </c>
+      <c r="H51" s="14">
+        <v>339</v>
+      </c>
+      <c r="I51" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J51">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -8869,28 +10397,32 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>131185</v>
+        <v>134529</v>
       </c>
       <c r="D52">
-        <v>294827</v>
+        <v>313340</v>
       </c>
       <c r="E52">
-        <v>426012</v>
+        <v>447869</v>
       </c>
       <c r="F52">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="G52">
-        <v>169</v>
-      </c>
-      <c r="H52">
-        <v>371</v>
-      </c>
-      <c r="I52">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>2386</v>
+      </c>
+      <c r="H52" s="14">
+        <v>463</v>
+      </c>
+      <c r="I52" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J52">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -8898,28 +10430,32 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>130520</v>
+        <v>135030</v>
       </c>
       <c r="D53">
-        <v>293510</v>
+        <v>316336</v>
       </c>
       <c r="E53">
-        <v>424030</v>
+        <v>451366</v>
       </c>
       <c r="F53">
-        <v>239</v>
+        <v>490</v>
       </c>
       <c r="G53">
-        <v>820</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>2929</v>
+      </c>
+      <c r="H53" s="14">
+        <v>485</v>
+      </c>
+      <c r="I53" s="14">
+        <v>4989</v>
+      </c>
+      <c r="J53">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -8927,28 +10463,32 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>130128</v>
+        <v>135350</v>
       </c>
       <c r="D54">
-        <v>292368</v>
+        <v>319265</v>
       </c>
       <c r="E54">
-        <v>422496</v>
+        <v>454615</v>
       </c>
       <c r="F54">
-        <v>211</v>
+        <v>354</v>
       </c>
       <c r="G54">
-        <v>729</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>2707</v>
+      </c>
+      <c r="H54" s="14">
+        <v>298</v>
+      </c>
+      <c r="I54" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J54">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -8956,28 +10496,32 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>129865</v>
+        <v>135867</v>
       </c>
       <c r="D55">
-        <v>291795</v>
+        <v>323088</v>
       </c>
       <c r="E55">
-        <v>421624</v>
+        <v>458955</v>
       </c>
       <c r="F55">
-        <v>268</v>
+        <v>424</v>
       </c>
       <c r="G55">
-        <v>984</v>
-      </c>
-      <c r="H55">
-        <v>165</v>
-      </c>
-      <c r="I55">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>2964</v>
+      </c>
+      <c r="H55" s="14">
+        <v>458</v>
+      </c>
+      <c r="I55" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J55">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -8985,28 +10529,32 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>129508</v>
+        <v>128619</v>
       </c>
       <c r="D56">
-        <v>291472</v>
+        <v>298717</v>
       </c>
       <c r="E56">
-        <v>420980</v>
+        <v>427336</v>
       </c>
       <c r="F56">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="G56">
-        <v>1467</v>
+        <v>2991</v>
       </c>
       <c r="H56">
-        <v>263</v>
-      </c>
-      <c r="I56">
-        <v>2934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>486</v>
+      </c>
+      <c r="I56" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J56">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -9014,28 +10562,32 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>132663</v>
+        <v>128666</v>
       </c>
       <c r="D57">
-        <v>301517</v>
+        <v>299547</v>
       </c>
       <c r="E57">
-        <v>434180</v>
+        <v>428213</v>
       </c>
       <c r="F57">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="G57">
-        <v>1343</v>
+        <v>2528</v>
       </c>
       <c r="H57">
-        <v>338</v>
-      </c>
-      <c r="I57">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>411</v>
+      </c>
+      <c r="I57" s="14">
+        <v>3114</v>
+      </c>
+      <c r="J57">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -9043,28 +10595,32 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>133122</v>
+        <v>128639</v>
       </c>
       <c r="D58">
-        <v>303355</v>
+        <v>300747</v>
       </c>
       <c r="E58">
-        <v>436477</v>
+        <v>429386</v>
       </c>
       <c r="F58">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="G58">
-        <v>1643</v>
+        <v>2706</v>
       </c>
       <c r="H58">
-        <v>375</v>
+        <v>463</v>
       </c>
       <c r="I58">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>4998</v>
+      </c>
+      <c r="J58">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -9072,28 +10628,32 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>133598</v>
+        <v>128604</v>
       </c>
       <c r="D59">
-        <v>305685</v>
+        <v>301843</v>
       </c>
       <c r="E59">
-        <v>439283</v>
+        <v>430447</v>
       </c>
       <c r="F59">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G59">
-        <v>2071</v>
+        <v>2991</v>
       </c>
       <c r="H59">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I59">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5854</v>
+      </c>
+      <c r="J59">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -9101,28 +10661,32 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>133890</v>
+        <v>128511</v>
       </c>
       <c r="D60">
-        <v>307063</v>
+        <v>302505</v>
       </c>
       <c r="E60">
-        <v>440953</v>
+        <v>431016</v>
       </c>
       <c r="F60">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="G60">
-        <v>1290</v>
+        <v>2367</v>
       </c>
       <c r="H60">
-        <v>345</v>
+        <v>454</v>
       </c>
       <c r="I60">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6149</v>
+      </c>
+      <c r="J60">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -9130,28 +10694,32 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>134238</v>
+        <v>128573</v>
       </c>
       <c r="D61">
-        <v>308203</v>
+        <v>303867</v>
       </c>
       <c r="E61">
-        <v>442441</v>
+        <v>432440</v>
       </c>
       <c r="F61">
-        <v>271</v>
+        <v>424</v>
       </c>
       <c r="G61">
-        <v>920</v>
+        <v>2810</v>
       </c>
       <c r="H61">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="I61">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5191</v>
+      </c>
+      <c r="J61">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -9165,10 +10733,10 @@
         <v>304642</v>
       </c>
       <c r="E62">
-        <v>432032</v>
+        <v>433032</v>
       </c>
       <c r="F62">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="G62">
         <v>2211</v>
@@ -9177,10 +10745,14 @@
         <v>325</v>
       </c>
       <c r="I62">
-        <v>5036</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>4889</v>
+      </c>
+      <c r="J62">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -9197,7 +10769,7 @@
         <v>433908</v>
       </c>
       <c r="F63">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="G63">
         <v>2359</v>
@@ -9208,8 +10780,12 @@
       <c r="I63">
         <v>5036</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J63">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>2022</v>
       </c>
@@ -9235,10 +10811,14 @@
         <v>358</v>
       </c>
       <c r="I64">
-        <v>6475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5291</v>
+      </c>
+      <c r="J64">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -9264,10 +10844,14 @@
         <v>447</v>
       </c>
       <c r="I65">
-        <v>5046</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6475</v>
+      </c>
+      <c r="J65">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -9295,8 +10879,12 @@
       <c r="I66">
         <v>5046</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J66">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -9316,16 +10904,20 @@
         <v>385</v>
       </c>
       <c r="G67">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="H67">
         <v>292</v>
       </c>
       <c r="I67">
-        <v>5255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>3864</v>
+      </c>
+      <c r="J67">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -9353,8 +10945,12 @@
       <c r="I68">
         <v>5255</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -9374,16 +10970,20 @@
         <v>355</v>
       </c>
       <c r="G69">
-        <v>2659</v>
+        <v>355</v>
       </c>
       <c r="H69">
-        <v>2289</v>
+        <v>329</v>
       </c>
       <c r="I69">
-        <v>5062</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6465</v>
+      </c>
+      <c r="J69">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>6794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -9410,6 +11010,43 @@
       </c>
       <c r="I70">
         <v>4676</v>
+      </c>
+      <c r="J70">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>2022</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>127187</v>
+      </c>
+      <c r="D71">
+        <v>310024</v>
+      </c>
+      <c r="E71">
+        <v>437211</v>
+      </c>
+      <c r="F71">
+        <v>320</v>
+      </c>
+      <c r="G71">
+        <v>2153</v>
+      </c>
+      <c r="H71">
+        <v>2187</v>
+      </c>
+      <c r="I71">
+        <v>4580</v>
+      </c>
+      <c r="J71">
+        <f>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</f>
+        <v>6767</v>
       </c>
     </row>
   </sheetData>

--- a/Recent 5yr dataset.xlsx
+++ b/Recent 5yr dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\DRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885E304-0C63-40F7-9A22-354EC8E166AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174E6B8-F263-4124-9248-665B349119CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="21" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -183,7 +183,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -237,7 +237,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,15 +261,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -277,9 +270,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -294,6 +284,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1813,16 +1806,16 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2022</c:v>
@@ -1837,16 +1830,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3264</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>3951</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4303</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4346</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4699</c:v>
@@ -1905,16 +1898,16 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2022</c:v>
@@ -1929,16 +1922,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>30571</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>36275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45582</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>59021</c:v>
@@ -7021,10 +7014,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93B827D6-5BEB-4142-8789-260A5DCECA2F}" name="PivotTable8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93B827D6-5BEB-4142-8789-260A5DCECA2F}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item h="1" x="0"/>
         <item x="1"/>
@@ -7034,15 +7027,6 @@
         <item x="5"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0">
       <items count="7">
@@ -7075,16 +7059,16 @@
   </rowFields>
   <rowItems count="6">
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -7109,7 +7093,7 @@
     <dataField name="Sales examinee" fld="2" baseField="3" baseItem="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7357,7 +7341,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A0C9E3-B104-44A4-B1C3-C0EC063D8649}" name="Resources" displayName="Resources" ref="A1:K71" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A0C9E3-B104-44A4-B1C3-C0EC063D8649}" name="Resources" displayName="Resources" ref="A1:K71" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:K71" xr:uid="{36A0C9E3-B104-44A4-B1C3-C0EC063D8649}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7381,7 +7365,7 @@
     <tableColumn id="8" xr3:uid="{5F3B2479-7C5D-4FA5-8829-7900A0F68779}" uniqueName="8" name="License Issued Salesperson" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{AA04227F-42E5-424B-8344-363803F61270}" uniqueName="9" name="Examinations brokers" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{05E676DE-E50F-4F37-94AF-8291AAEE3199}" uniqueName="10" name="Examinations Sales" queryTableFieldId="10"/>
-    <tableColumn id="1" xr3:uid="{1421E6DA-3321-4EC4-9D75-510D5B063D10}" uniqueName="1" name="total exam" queryTableFieldId="12" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{1421E6DA-3321-4EC4-9D75-510D5B063D10}" uniqueName="1" name="total exam" queryTableFieldId="12" dataDxfId="0">
       <calculatedColumnFormula>SUM(Resources[[#This Row],[Examinations brokers]:[Examinations Sales]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{876AB3B4-B1AB-43F8-B460-2FBF5B48BC0F}" uniqueName="12" name="Column1" queryTableFieldId="14"/>
@@ -7845,7 +7829,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7882,7 +7866,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13">
+      <c r="A2" s="3">
         <v>2017</v>
       </c>
       <c r="B2" s="1"/>
@@ -8035,62 +8019,62 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="15">
-        <v>3264</v>
-      </c>
-      <c r="C16" s="15">
-        <v>30571</v>
+        <v>2018</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4346</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45582</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="15">
-        <v>3951</v>
-      </c>
-      <c r="C17" s="15">
-        <v>36275</v>
+        <v>2019</v>
+      </c>
+      <c r="B17" s="12">
+        <v>4303</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44165</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B18" s="15">
-        <v>4303</v>
-      </c>
-      <c r="C18" s="15">
-        <v>44165</v>
+        <v>2020</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3264</v>
+      </c>
+      <c r="C18" s="12">
+        <v>30571</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="15">
-        <v>4346</v>
-      </c>
-      <c r="C19" s="15">
-        <v>45582</v>
+        <v>2021</v>
+      </c>
+      <c r="B19" s="12">
+        <v>3951</v>
+      </c>
+      <c r="C19" s="12">
+        <v>36275</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>2022</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>4699</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>59021</v>
       </c>
       <c r="E20"/>
@@ -8100,10 +8084,10 @@
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>20563</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>215614</v>
       </c>
       <c r="E21"/>
@@ -8731,10 +8715,10 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L1"/>
@@ -9751,7 +9735,7 @@
       <c r="G32">
         <v>1936</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32">
         <v>398</v>
       </c>
       <c r="I32">
@@ -9784,7 +9768,7 @@
       <c r="G33">
         <v>2250</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33">
         <v>440</v>
       </c>
       <c r="I33">
@@ -9817,7 +9801,7 @@
       <c r="G34">
         <v>1719</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34">
         <v>367</v>
       </c>
       <c r="I34">
@@ -9850,7 +9834,7 @@
       <c r="G35">
         <v>1776</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35">
         <v>363</v>
       </c>
       <c r="I35">
@@ -9883,7 +9867,7 @@
       <c r="G36">
         <v>1548</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36">
         <v>369</v>
       </c>
       <c r="I36">
@@ -9916,7 +9900,7 @@
       <c r="G37">
         <v>1471</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37">
         <v>326</v>
       </c>
       <c r="I37">
@@ -9949,7 +9933,7 @@
       <c r="G38">
         <v>1303</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38">
         <v>296</v>
       </c>
       <c r="I38">
@@ -9982,7 +9966,7 @@
       <c r="G39">
         <v>1609</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39">
         <v>371</v>
       </c>
       <c r="I39">
@@ -10015,7 +9999,7 @@
       <c r="G40">
         <v>1252</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40">
         <v>169</v>
       </c>
       <c r="I40">
@@ -10048,7 +10032,7 @@
       <c r="G41">
         <v>820</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
@@ -10081,7 +10065,7 @@
       <c r="G42">
         <v>729</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
@@ -10114,7 +10098,7 @@
       <c r="G43">
         <v>984</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43">
         <v>165</v>
       </c>
       <c r="I43">
@@ -10147,7 +10131,7 @@
       <c r="G44">
         <v>1467</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44">
         <v>263</v>
       </c>
       <c r="I44">
@@ -10180,7 +10164,7 @@
       <c r="G45">
         <v>1343</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45">
         <v>338</v>
       </c>
       <c r="I45">
@@ -10213,7 +10197,7 @@
       <c r="G46">
         <v>1643</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46">
         <v>375</v>
       </c>
       <c r="I46">
@@ -10246,7 +10230,7 @@
       <c r="G47">
         <v>2071</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47">
         <v>415</v>
       </c>
       <c r="I47">
@@ -10279,10 +10263,10 @@
       <c r="G48">
         <v>1290</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48">
         <v>345</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48">
         <v>3114</v>
       </c>
       <c r="J48">
@@ -10312,10 +10296,10 @@
       <c r="G49">
         <v>920</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49">
         <v>72</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49">
         <v>3114</v>
       </c>
       <c r="J49">
@@ -10345,10 +10329,10 @@
       <c r="G50">
         <v>501</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50">
         <v>10</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50">
         <v>3114</v>
       </c>
       <c r="J50">
@@ -10378,10 +10362,10 @@
       <c r="G51">
         <v>1711</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51">
         <v>339</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51">
         <v>3114</v>
       </c>
       <c r="J51">
@@ -10411,10 +10395,10 @@
       <c r="G52">
         <v>2386</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52">
         <v>463</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52">
         <v>3114</v>
       </c>
       <c r="J52">
@@ -10444,10 +10428,10 @@
       <c r="G53">
         <v>2929</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53">
         <v>485</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53">
         <v>4989</v>
       </c>
       <c r="J53">
@@ -10477,10 +10461,10 @@
       <c r="G54">
         <v>2707</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54">
         <v>298</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54">
         <v>3114</v>
       </c>
       <c r="J54">
@@ -10510,10 +10494,10 @@
       <c r="G55">
         <v>2964</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55">
         <v>458</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55">
         <v>3114</v>
       </c>
       <c r="J55">
@@ -10546,7 +10530,7 @@
       <c r="H56">
         <v>486</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56">
         <v>3114</v>
       </c>
       <c r="J56">
@@ -10579,7 +10563,7 @@
       <c r="H57">
         <v>411</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57">
         <v>3114</v>
       </c>
       <c r="J57">
